--- a/www/INCIDENCIAS.xlsx
+++ b/www/INCIDENCIAS.xlsx
@@ -10,14 +10,14 @@
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">general_report!$A$4:$AJ$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">general_report!$A$4:$AK$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="142">
   <si>
     <t>GELMoviles</t>
   </si>
@@ -470,18 +470,6 @@
     <t>OPCION</t>
   </si>
   <si>
-    <t>ACTUALIZA</t>
-  </si>
-  <si>
-    <t>OFFLINE</t>
-  </si>
-  <si>
-    <t>ORIENTATE</t>
-  </si>
-  <si>
-    <t>MAPA</t>
-  </si>
-  <si>
     <t>Ajustado</t>
   </si>
   <si>
@@ -489,6 +477,12 @@
   </si>
   <si>
     <t>no se ajusta</t>
+  </si>
+  <si>
+    <t>Milalf</t>
+  </si>
+  <si>
+    <t>Unir orientate con el mapa</t>
   </si>
 </sst>
 </file>
@@ -671,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +854,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1099,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,9 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ26"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1536,160 +1540,164 @@
     <col min="1" max="1" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
+    <row r="1" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
+      <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
+      <c r="AK2" s="14"/>
     </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
+      <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1702,104 +1710,105 @@
       <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1809,32 +1818,30 @@
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>41572.756944444445</v>
-      </c>
-      <c r="L5" s="5">
-        <v>41573.441666666666</v>
       </c>
       <c r="M5" s="5">
         <v>41573.441666666666</v>
@@ -1842,42 +1849,45 @@
       <c r="N5" s="5">
         <v>41573.441666666666</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="5">
+        <v>41573.441666666666</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1887,73 +1897,74 @@
       <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>41572.763888888891</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>41574.368750000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>41572.763888888891</v>
       </c>
-      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="156.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1963,73 +1974,74 @@
       <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>41572.768055555556</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>41573.387499999997</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>41572.768055555556</v>
       </c>
-      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -2039,75 +2051,76 @@
       <c r="C8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>41572.777777777781</v>
-      </c>
-      <c r="L8" s="5">
-        <v>41573.434027777781</v>
       </c>
       <c r="M8" s="5">
         <v>41573.434027777781</v>
       </c>
       <c r="N8" s="5">
+        <v>41573.434027777781</v>
+      </c>
+      <c r="O8" s="5">
         <v>41573.429166666669</v>
       </c>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="3" t="s">
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2117,75 +2130,76 @@
       <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>41572.779861111114</v>
-      </c>
-      <c r="L9" s="5">
-        <v>41574.364583333336</v>
       </c>
       <c r="M9" s="5">
         <v>41574.364583333336</v>
       </c>
       <c r="N9" s="5">
+        <v>41574.364583333336</v>
+      </c>
+      <c r="O9" s="5">
         <v>41574.356944444444</v>
       </c>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="3" t="s">
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2195,73 +2209,74 @@
       <c r="C10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>41573.530555555553</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>41574.368750000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>41573.530555555553</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="3" t="s">
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2271,75 +2286,76 @@
       <c r="C11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>41573.532638888886</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>41574.404861111114</v>
-      </c>
-      <c r="M11" s="5">
-        <v>41574.365972222222</v>
       </c>
       <c r="N11" s="5">
         <v>41574.365972222222</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="5">
+        <v>41574.365972222222</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="3" t="s">
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2349,32 +2365,30 @@
       <c r="C12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>41573.534722222219</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41574.429166666669</v>
       </c>
       <c r="M12" s="5">
         <v>41574.429166666669</v>
@@ -2382,42 +2396,45 @@
       <c r="N12" s="5">
         <v>41574.429166666669</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="5">
+        <v>41574.429166666669</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="3" t="s">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2427,73 +2444,74 @@
       <c r="C13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>41573.538888888892</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>41574.429166666669</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>41573.538888888892</v>
       </c>
-      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>1</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="3" t="s">
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="142.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -2503,73 +2521,74 @@
       <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>41573.544444444444</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>41574.429861111108</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>41573.544444444444</v>
       </c>
-      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="3" t="s">
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2579,73 +2598,74 @@
       <c r="C15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>41573.552083333336</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>41574.430555555555</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>41573.552083333336</v>
       </c>
-      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="s">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -2655,73 +2675,74 @@
       <c r="C16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>41573.560416666667</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>41574.430555555555</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>41573.561111111114</v>
       </c>
-      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>1</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3" t="s">
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="99.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -2731,73 +2752,74 @@
       <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>41573.570138888892</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>41574.431250000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>41573.570138888892</v>
       </c>
-      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3" t="s">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -2807,73 +2829,76 @@
       <c r="C18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>41573.572916666664</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>41574.431250000001</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>41573.572916666664</v>
       </c>
-      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="s">
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -2883,32 +2908,30 @@
       <c r="C19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>41573.578472222223</v>
-      </c>
-      <c r="L19" s="5">
-        <v>41574.447916666664</v>
       </c>
       <c r="M19" s="5">
         <v>41574.447916666664</v>
@@ -2916,42 +2939,45 @@
       <c r="N19" s="5">
         <v>41574.447916666664</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="5">
+        <v>41574.447916666664</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3">
         <v>0</v>
       </c>
-      <c r="T19" s="3">
+      <c r="U19" s="3">
         <v>1</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="3" t="s">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2961,32 +2987,30 @@
       <c r="C20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>41573.581944444442</v>
-      </c>
-      <c r="L20" s="5">
-        <v>41574.448611111111</v>
       </c>
       <c r="M20" s="5">
         <v>41574.448611111111</v>
@@ -2994,42 +3018,45 @@
       <c r="N20" s="5">
         <v>41574.448611111111</v>
       </c>
-      <c r="O20" s="3"/>
+      <c r="O20" s="5">
+        <v>41574.448611111111</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="3" t="s">
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -3039,32 +3066,30 @@
       <c r="C21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>41573.582638888889</v>
-      </c>
-      <c r="L21" s="5">
-        <v>41574.451388888891</v>
       </c>
       <c r="M21" s="5">
         <v>41574.451388888891</v>
@@ -3072,40 +3097,43 @@
       <c r="N21" s="5">
         <v>41574.451388888891</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="5">
+        <v>41574.451388888891</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1</v>
       </c>
-      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3" t="s">
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3115,32 +3143,30 @@
       <c r="C22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>41573.584722222222</v>
-      </c>
-      <c r="L22" s="5">
-        <v>41574.45208333333</v>
       </c>
       <c r="M22" s="5">
         <v>41574.45208333333</v>
@@ -3148,42 +3174,45 @@
       <c r="N22" s="5">
         <v>41574.45208333333</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22" s="5">
+        <v>41574.45208333333</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="3" t="s">
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3193,32 +3222,30 @@
       <c r="C23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>41573.586805555555</v>
-      </c>
-      <c r="L23" s="5">
-        <v>41574.453472222223</v>
       </c>
       <c r="M23" s="5">
         <v>41574.453472222223</v>
@@ -3226,42 +3253,45 @@
       <c r="N23" s="5">
         <v>41574.453472222223</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23" s="5">
+        <v>41574.453472222223</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="3" t="s">
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="85.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -3271,71 +3301,72 @@
       <c r="C24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>41573.589583333334</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>41574.453472222223</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>41573.589583333334</v>
       </c>
-      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1</v>
       </c>
-      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AD24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="3" t="s">
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="71.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -3345,32 +3376,30 @@
       <c r="C25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>41573.59097222222</v>
-      </c>
-      <c r="L25" s="5">
-        <v>41574.456944444442</v>
       </c>
       <c r="M25" s="5">
         <v>41574.456944444442</v>
@@ -3378,92 +3407,103 @@
       <c r="N25" s="5">
         <v>41574.456944444442</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="5">
+        <v>41574.456944444442</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3">
         <v>0</v>
       </c>
-      <c r="T25" s="3">
+      <c r="U25" s="3">
         <v>1</v>
       </c>
-      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC25" s="3" t="s">
+      <c r="AD25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3" t="s">
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
+      <c r="AK26" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AJ26"/>
+  <autoFilter ref="A4:AK26">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Amorcito"/>
+        <filter val="Milalf"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="A26:AJ26"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A26:AK26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://bog.ospinternational.com:8889/secure/IssueNavigator.jspa?reset=true&amp;jqlQuery=ORDER+BY+key+ASC%2C+resolution+DESC%2C+priority+DESC"/>
     <hyperlink ref="B5" r:id="rId2" display="http://bog.ospinternational.com:8889/browse/MASC-1"/>
     <hyperlink ref="B6" r:id="rId3" display="http://bog.ospinternational.com:8889/browse/MASC-2"/>
-    <hyperlink ref="U6" r:id="rId4" display="http://bog.ospinternational.com:8889/secure/attachment/11305/_thumb_11305.png"/>
+    <hyperlink ref="V6" r:id="rId4" display="http://bog.ospinternational.com:8889/secure/attachment/11305/_thumb_11305.png"/>
     <hyperlink ref="B7" r:id="rId5" display="http://bog.ospinternational.com:8889/browse/MASC-3"/>
     <hyperlink ref="B8" r:id="rId6" display="http://bog.ospinternational.com:8889/browse/MASC-4"/>
     <hyperlink ref="B9" r:id="rId7" display="http://bog.ospinternational.com:8889/browse/MASC-5"/>
@@ -3473,20 +3513,20 @@
     <hyperlink ref="B13" r:id="rId11" display="http://bog.ospinternational.com:8889/browse/MASC-9"/>
     <hyperlink ref="B14" r:id="rId12" display="http://bog.ospinternational.com:8889/browse/MASC-10"/>
     <hyperlink ref="B15" r:id="rId13" display="http://bog.ospinternational.com:8889/browse/MASC-11"/>
-    <hyperlink ref="U15" r:id="rId14" display="http://bog.ospinternational.com:8889/secure/attachment/11322/_thumb_11322.png"/>
+    <hyperlink ref="V15" r:id="rId14" display="http://bog.ospinternational.com:8889/secure/attachment/11322/_thumb_11322.png"/>
     <hyperlink ref="B16" r:id="rId15" display="http://bog.ospinternational.com:8889/browse/MASC-12"/>
-    <hyperlink ref="U16" r:id="rId16" display="http://bog.ospinternational.com:8889/secure/attachment/11323/_thumb_11323.png"/>
+    <hyperlink ref="V16" r:id="rId16" display="http://bog.ospinternational.com:8889/secure/attachment/11323/_thumb_11323.png"/>
     <hyperlink ref="B17" r:id="rId17" display="http://bog.ospinternational.com:8889/browse/MASC-13"/>
-    <hyperlink ref="U17" r:id="rId18" display="http://bog.ospinternational.com:8889/secure/attachment/11324/_thumb_11324.png"/>
+    <hyperlink ref="V17" r:id="rId18" display="http://bog.ospinternational.com:8889/secure/attachment/11324/_thumb_11324.png"/>
     <hyperlink ref="B18" r:id="rId19" display="http://bog.ospinternational.com:8889/browse/MASC-14"/>
-    <hyperlink ref="U18" r:id="rId20" display="http://bog.ospinternational.com:8889/secure/attachment/11325/_thumb_11325.png"/>
+    <hyperlink ref="V18" r:id="rId20" display="http://bog.ospinternational.com:8889/secure/attachment/11325/_thumb_11325.png"/>
     <hyperlink ref="B19" r:id="rId21" display="http://bog.ospinternational.com:8889/browse/MASC-15"/>
-    <hyperlink ref="U19" r:id="rId22" display="http://bog.ospinternational.com:8889/secure/attachment/11326/_thumb_11326.png"/>
+    <hyperlink ref="V19" r:id="rId22" display="http://bog.ospinternational.com:8889/secure/attachment/11326/_thumb_11326.png"/>
     <hyperlink ref="B20" r:id="rId23" display="http://bog.ospinternational.com:8889/browse/MASC-16"/>
-    <hyperlink ref="U20" r:id="rId24" display="http://bog.ospinternational.com:8889/secure/attachment/11327/_thumb_11327.png"/>
+    <hyperlink ref="V20" r:id="rId24" display="http://bog.ospinternational.com:8889/secure/attachment/11327/_thumb_11327.png"/>
     <hyperlink ref="B21" r:id="rId25" display="http://bog.ospinternational.com:8889/browse/MASC-17"/>
     <hyperlink ref="B22" r:id="rId26" display="http://bog.ospinternational.com:8889/browse/MASC-18"/>
-    <hyperlink ref="U22" r:id="rId27" display="http://bog.ospinternational.com:8889/secure/attachment/11328/_thumb_11328.png"/>
+    <hyperlink ref="V22" r:id="rId27" display="http://bog.ospinternational.com:8889/secure/attachment/11328/_thumb_11328.png"/>
     <hyperlink ref="B23" r:id="rId28" display="http://bog.ospinternational.com:8889/browse/MASC-19"/>
     <hyperlink ref="B24" r:id="rId29" display="http://bog.ospinternational.com:8889/browse/MASC-20"/>
     <hyperlink ref="B25" r:id="rId30" display="http://bog.ospinternational.com:8889/browse/MASC-21"/>
